--- a/01_基本設計書/03_E-R図/E-R図.xlsx
+++ b/01_基本設計書/03_E-R図/E-R図.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a7a4bfda367e78ef/デスクトップ/ブログウェブアプリ開発/01_基本設計書/03_E-R図/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a7a4bfda367e78ef/デスクトップ/github用/01_基本設計書/03_E-R図/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{2817CE10-8117-4D73-BE30-8972D9D32A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6E87E13-1F1C-46F3-B675-3EDA7ED61665}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{2817CE10-8117-4D73-BE30-8972D9D32A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A687164-FC38-440A-A8F7-A9D648F8FB50}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9045" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更管理" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="52">
   <si>
     <t>USERテーブル</t>
     <phoneticPr fontId="1"/>
@@ -69,26 +69,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>timestamp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UQ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>USER_DITAILテーブル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -97,18 +77,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PK,FK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>POSTテーブル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -117,26 +85,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>title</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>varchar(30)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>image_url</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>varchar(250)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MESSAGEテーブル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -161,10 +117,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>boolean</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>discription</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -174,14 +126,6 @@
   </si>
   <si>
     <t>like_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FK,(user_idとUQ)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FK,(post_idとUQ)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -269,6 +213,66 @@
     <rPh sb="0" eb="2">
       <t>アンドウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Boolean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DateTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nullOK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>def(false)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>now</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>updatedAt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pk,fk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hashed_refres</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>is_verified</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fk,(post_idとuq)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fk,(user_idとuq)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -794,7 +798,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -857,12 +861,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -996,7 +1001,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="カメラ!$C$3:$E$9" spid="_x0000_s2127"/>
+                  <a14:cameraTool cellRange="カメラ!$C$3:$E$11" spid="_x0000_s2147"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1062,7 +1067,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="カメラ!$C$13:$E$19" spid="_x0000_s2128"/>
+                  <a14:cameraTool cellRange="カメラ!$C$15:$E$21" spid="_x0000_s2148"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1128,7 +1133,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="カメラ!$C$22:$E$31" spid="_x0000_s2129"/>
+                  <a14:cameraTool cellRange="カメラ!$C$24:$E$33" spid="_x0000_s2149"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1194,7 +1199,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="カメラ!$C$43:$E$50" spid="_x0000_s2130"/>
+                  <a14:cameraTool cellRange="カメラ!$C$45:$E$52" spid="_x0000_s2150"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1907,7 +1912,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="カメラ!$C$34:$E$39" spid="_x0000_s2131"/>
+                  <a14:cameraTool cellRange="カメラ!$C$36:$E$41" spid="_x0000_s2151"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2723,14 +2728,14 @@
     <row r="5" spans="3:40" ht="15.5" thickBot="1"/>
     <row r="6" spans="3:40" ht="15.5" thickBot="1">
       <c r="C6" s="12" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -2739,7 +2744,7 @@
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
       <c r="O6" s="15" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
@@ -2751,14 +2756,14 @@
       <c r="W6" s="13"/>
       <c r="X6" s="14"/>
       <c r="Y6" s="15" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="Z6" s="13"/>
       <c r="AA6" s="16"/>
     </row>
     <row r="7" spans="3:40" ht="15.5" thickTop="1">
       <c r="C7" s="17" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="19"/>
@@ -2796,24 +2801,24 @@
     </row>
     <row r="10" spans="3:40">
       <c r="C10" s="26" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="3:40" ht="15.5" thickBot="1"/>
     <row r="12" spans="3:40" ht="15.5" thickBot="1">
       <c r="C12" s="12" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="15" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="14"/>
       <c r="J12" s="15" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
@@ -2843,7 +2848,7 @@
       <c r="AJ12" s="13"/>
       <c r="AK12" s="14"/>
       <c r="AL12" s="15" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AM12" s="13"/>
       <c r="AN12" s="16"/>
@@ -2853,15 +2858,15 @@
       <c r="D13" s="28">
         <v>1</v>
       </c>
-      <c r="E13" s="53">
+      <c r="E13" s="50">
         <v>45746</v>
       </c>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="55"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="52"/>
       <c r="J13" s="29" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
@@ -2891,7 +2896,7 @@
       <c r="AJ13" s="30"/>
       <c r="AK13" s="28"/>
       <c r="AL13" s="29" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AM13" s="30"/>
       <c r="AN13" s="31"/>
@@ -2901,7 +2906,9 @@
       <c r="D14" s="33">
         <v>2</v>
       </c>
-      <c r="E14" s="47"/>
+      <c r="E14" s="56">
+        <v>45862</v>
+      </c>
       <c r="F14" s="48"/>
       <c r="G14" s="48"/>
       <c r="H14" s="48"/>
@@ -2934,7 +2941,9 @@
       <c r="AI14" s="35"/>
       <c r="AJ14" s="35"/>
       <c r="AK14" s="33"/>
-      <c r="AL14" s="34"/>
+      <c r="AL14" s="34" t="s">
+        <v>36</v>
+      </c>
       <c r="AM14" s="35"/>
       <c r="AN14" s="36"/>
     </row>
@@ -4077,11 +4086,11 @@
       <c r="D42" s="43">
         <v>30</v>
       </c>
-      <c r="E42" s="50"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="52"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="55"/>
       <c r="J42" s="44"/>
       <c r="K42" s="45"/>
       <c r="L42" s="45"/>
@@ -4116,12 +4125,18 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="E41:I41"/>
     <mergeCell ref="E30:I30"/>
     <mergeCell ref="E19:I19"/>
     <mergeCell ref="E20:I20"/>
@@ -4134,18 +4149,12 @@
     <mergeCell ref="E27:I27"/>
     <mergeCell ref="E28:I28"/>
     <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E17:I17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4173,14 +4182,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EED0FD-D271-4DA7-A454-8693BC6C07DF}">
-  <dimension ref="C3:E50"/>
+  <dimension ref="C3:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="2" width="8.6640625" style="1"/>
-    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.4140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.6640625" style="1"/>
@@ -4209,10 +4218,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="3:5">
@@ -4220,10 +4229,10 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="3:5">
@@ -4231,328 +4240,368 @@
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="3:5">
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="3:5">
       <c r="C9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5">
+      <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="6" t="s">
+      <c r="D11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5">
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="3:5">
+      <c r="C16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="3:5">
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5">
-      <c r="C16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="3:5">
       <c r="C17" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="18" spans="3:5">
       <c r="C18" s="2" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="3:5">
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="6" t="s">
+    <row r="20" spans="3:5">
+      <c r="C20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5">
+      <c r="C21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5">
+      <c r="C24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E25" s="6" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5">
-      <c r="C24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5">
-      <c r="C25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="26" spans="3:5">
       <c r="C26" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="3:5">
       <c r="C27" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="28" spans="3:5">
       <c r="C28" s="2" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="3:5">
       <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="3:5">
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="31" spans="3:5">
       <c r="C31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5">
+      <c r="C32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="34" spans="3:5">
-      <c r="C34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="3:5">
-      <c r="C35" s="6" t="s">
+      <c r="D33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="C36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="3:5">
+      <c r="C37" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D37" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E37" s="6" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5">
-      <c r="C36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5">
-      <c r="C37" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="38" spans="3:5">
       <c r="C38" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="3:5">
       <c r="C39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5">
+      <c r="C40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5">
+      <c r="C41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="43" spans="3:5">
-      <c r="C43" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="9"/>
-    </row>
-    <row r="44" spans="3:5">
-      <c r="C44" s="10" t="s">
+      <c r="D41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5">
+      <c r="C45" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="9"/>
+    </row>
+    <row r="46" spans="3:5">
+      <c r="C46" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D46" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E46" s="10" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5">
-      <c r="C45" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5">
-      <c r="C46" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="47" spans="3:5">
       <c r="C47" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="3:5">
       <c r="C48" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="49" spans="3:5">
       <c r="C49" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E49" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="50" spans="3:5">
       <c r="C50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="3:5">
+      <c r="C51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5">
+      <c r="C52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="2"/>
+      <c r="D52" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
